--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7370,6 +7370,20 @@
         <v>89.6883</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1</v>
+      </c>
+      <c r="D496" t="n">
+        <v>90.404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D496"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7384,6 +7384,20 @@
         <v>90.404</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1</v>
+      </c>
+      <c r="D497" t="n">
+        <v>89.3939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D497"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7398,6 +7398,20 @@
         <v>89.3939</v>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>88.7818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7412,6 +7412,20 @@
         <v>88.7818</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+      <c r="D499" t="n">
+        <v>88.1324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7426,6 +7426,20 @@
         <v>88.1324</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+      <c r="D500" t="n">
+        <v>87.6772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7440,6 +7440,20 @@
         <v>87.6772</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
+      </c>
+      <c r="D501" t="n">
+        <v>87.64570000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7454,6 +7454,34 @@
         <v>87.64570000000001</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1</v>
+      </c>
+      <c r="D502" t="n">
+        <v>88.354</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+      <c r="D503" t="n">
+        <v>88.661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D503"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7482,6 +7482,20 @@
         <v>88.661</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+      <c r="D504" t="n">
+        <v>88.5896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7496,6 +7496,20 @@
         <v>88.5896</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1</v>
+      </c>
+      <c r="D505" t="n">
+        <v>87.97239999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D505"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7510,6 +7510,20 @@
         <v>87.97239999999999</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1</v>
+      </c>
+      <c r="D506" t="n">
+        <v>87.9199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D506"/>
+  <dimension ref="A1:D507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7524,6 +7524,20 @@
         <v>87.9199</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1</v>
+      </c>
+      <c r="D507" t="n">
+        <v>88.2829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D507"/>
+  <dimension ref="A1:D508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7538,6 +7538,20 @@
         <v>88.2829</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1</v>
+      </c>
+      <c r="D508" t="n">
+        <v>88.6562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D508"/>
+  <dimension ref="A1:D509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7552,6 +7552,20 @@
         <v>88.6562</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+      <c r="D509" t="n">
+        <v>89.5159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D509"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7566,6 +7566,20 @@
         <v>89.5159</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1</v>
+      </c>
+      <c r="D510" t="n">
+        <v>89.60899999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7580,6 +7580,20 @@
         <v>89.60899999999999</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1</v>
+      </c>
+      <c r="D511" t="n">
+        <v>89.28870000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D511"/>
+  <dimension ref="A1:D512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7594,6 +7594,20 @@
         <v>89.28870000000001</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1</v>
+      </c>
+      <c r="D512" t="n">
+        <v>89.6678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D512"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7608,6 +7608,20 @@
         <v>89.6678</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1</v>
+      </c>
+      <c r="D513" t="n">
+        <v>90.2299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7622,6 +7622,20 @@
         <v>90.2299</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
+      <c r="D514" t="n">
+        <v>90.6626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D514"/>
+  <dimension ref="A1:D515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7636,6 +7636,20 @@
         <v>90.6626</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1</v>
+      </c>
+      <c r="D515" t="n">
+        <v>91.24339999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D515"/>
+  <dimension ref="A1:D516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7650,6 +7650,20 @@
         <v>91.24339999999999</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1</v>
+      </c>
+      <c r="D516" t="n">
+        <v>90.6842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D516"/>
+  <dimension ref="A1:D517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7664,6 +7664,20 @@
         <v>90.6842</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1</v>
+      </c>
+      <c r="D517" t="n">
+        <v>91.1514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D517"/>
+  <dimension ref="A1:D518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7678,6 +7678,20 @@
         <v>91.1514</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1</v>
+      </c>
+      <c r="D518" t="n">
+        <v>91.2561</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D518"/>
+  <dimension ref="A1:D519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7692,6 +7692,20 @@
         <v>91.2561</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1</v>
+      </c>
+      <c r="D519" t="n">
+        <v>90.8901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D519"/>
+  <dimension ref="A1:D520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7706,6 +7706,20 @@
         <v>90.8901</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+      <c r="D520" t="n">
+        <v>91.0758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D520"/>
+  <dimension ref="A1:D521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7720,6 +7720,20 @@
         <v>91.0758</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
+      <c r="D521" t="n">
+        <v>91.20569999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D521"/>
+  <dimension ref="A1:D522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7734,6 +7734,20 @@
         <v>91.20569999999999</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1</v>
+      </c>
+      <c r="D522" t="n">
+        <v>91.4316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D522"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7748,6 +7748,20 @@
         <v>91.4316</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1</v>
+      </c>
+      <c r="D523" t="n">
+        <v>91.8237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D523"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7762,6 +7762,20 @@
         <v>91.8237</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1</v>
+      </c>
+      <c r="D524" t="n">
+        <v>92.5492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7776,6 +7776,20 @@
         <v>92.5492</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1</v>
+      </c>
+      <c r="D525" t="n">
+        <v>92.4102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D525"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7790,6 +7790,20 @@
         <v>92.4102</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1</v>
+      </c>
+      <c r="D526" t="n">
+        <v>92.349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7804,6 +7804,20 @@
         <v>92.349</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1</v>
+      </c>
+      <c r="D527" t="n">
+        <v>92.4387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7818,6 +7818,20 @@
         <v>92.4387</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1</v>
+      </c>
+      <c r="D528" t="n">
+        <v>92.75190000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D528"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7832,6 +7832,20 @@
         <v>92.75190000000001</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1</v>
+      </c>
+      <c r="D529" t="n">
+        <v>92.63209999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D529"/>
+  <dimension ref="A1:D530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,6 +7846,20 @@
         <v>92.63209999999999</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1</v>
+      </c>
+      <c r="D530" t="n">
+        <v>92.0425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D530"/>
+  <dimension ref="A1:D531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7860,6 +7860,20 @@
         <v>92.0425</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1</v>
+      </c>
+      <c r="D531" t="n">
+        <v>91.86920000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D531"/>
+  <dimension ref="A1:D532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7874,6 +7874,20 @@
         <v>91.86920000000001</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1</v>
+      </c>
+      <c r="D532" t="n">
+        <v>90.84229999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D532"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7888,6 +7888,20 @@
         <v>90.84229999999999</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1</v>
+      </c>
+      <c r="D533" t="n">
+        <v>91.3336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7902,6 +7902,20 @@
         <v>91.3336</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1</v>
+      </c>
+      <c r="D534" t="n">
+        <v>91.35339999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D534"/>
+  <dimension ref="A1:D535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7916,6 +7916,20 @@
         <v>91.35339999999999</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1</v>
+      </c>
+      <c r="D535" t="n">
+        <v>91.1604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D535"/>
+  <dimension ref="A1:D536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7930,6 +7930,20 @@
         <v>91.1604</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1</v>
+      </c>
+      <c r="D536" t="n">
+        <v>90.3412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D536"/>
+  <dimension ref="A1:D537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7944,6 +7944,20 @@
         <v>90.3412</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D537" t="n">
+        <v>90.74930000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D537"/>
+  <dimension ref="A1:D538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7958,6 +7958,20 @@
         <v>90.74930000000001</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D538" t="n">
+        <v>90.62520000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D538"/>
+  <dimension ref="A1:D539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7972,6 +7972,20 @@
         <v>90.62520000000001</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D539" t="n">
+        <v>90.8818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D539"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7986,6 +7986,20 @@
         <v>90.8818</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D540" t="n">
+        <v>91.5449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D540"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8000,6 +8000,20 @@
         <v>91.5449</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D541" t="n">
+        <v>91.63590000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8014,6 +8014,20 @@
         <v>91.63590000000001</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D542" t="n">
+        <v>91.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8028,6 +8028,20 @@
         <v>91.87</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1</v>
+      </c>
+      <c r="D543" t="n">
+        <v>91.9829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D543"/>
+  <dimension ref="A1:D544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8042,6 +8042,20 @@
         <v>91.9829</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D544" t="n">
+        <v>92.2243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D544"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8056,6 +8056,20 @@
         <v>92.2243</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1</v>
+      </c>
+      <c r="D545" t="n">
+        <v>92.6861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D545"/>
+  <dimension ref="A1:D546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8070,6 +8070,20 @@
         <v>92.6861</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1</v>
+      </c>
+      <c r="D546" t="n">
+        <v>91.9499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D546"/>
+  <dimension ref="A1:D547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8084,6 +8084,20 @@
         <v>91.9499</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1</v>
+      </c>
+      <c r="D547" t="n">
+        <v>92.6118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D547"/>
+  <dimension ref="A1:D548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8098,6 +8098,20 @@
         <v>92.6118</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1</v>
+      </c>
+      <c r="D548" t="n">
+        <v>92.7761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D548"/>
+  <dimension ref="A1:D549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8112,6 +8112,20 @@
         <v>92.7761</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1</v>
+      </c>
+      <c r="D549" t="n">
+        <v>92.5745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D549"/>
+  <dimension ref="A1:D550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8126,6 +8126,20 @@
         <v>92.5745</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1</v>
+      </c>
+      <c r="D550" t="n">
+        <v>92.5919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D550"/>
+  <dimension ref="A1:D551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8140,6 +8140,20 @@
         <v>92.5919</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1</v>
+      </c>
+      <c r="D551" t="n">
+        <v>92.2628</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D551"/>
+  <dimension ref="A1:D552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8154,6 +8154,20 @@
         <v>92.2628</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1</v>
+      </c>
+      <c r="D552" t="n">
+        <v>92.366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8168,6 +8168,20 @@
         <v>92.366</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1</v>
+      </c>
+      <c r="D553" t="n">
+        <v>92.2914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D553"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8182,6 +8182,20 @@
         <v>92.2914</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1</v>
+      </c>
+      <c r="D554" t="n">
+        <v>92.5254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D554"/>
+  <dimension ref="A1:D555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8196,6 +8196,20 @@
         <v>92.5254</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1</v>
+      </c>
+      <c r="D555" t="n">
+        <v>92.3892</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D555"/>
+  <dimension ref="A1:D556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8210,6 +8210,20 @@
         <v>92.3892</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1</v>
+      </c>
+      <c r="D556" t="n">
+        <v>92.3058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D556"/>
+  <dimension ref="A1:D557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8224,6 +8224,20 @@
         <v>92.3058</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1</v>
+      </c>
+      <c r="D557" t="n">
+        <v>92.41549999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D557"/>
+  <dimension ref="A1:D558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8238,6 +8238,20 @@
         <v>92.41549999999999</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1</v>
+      </c>
+      <c r="D558" t="n">
+        <v>92.581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/USD.xlsx
+++ b/LME/parser_beta/data/centrobank/USD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D558"/>
+  <dimension ref="A1:D559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8252,6 +8252,20 @@
         <v>92.581</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1</v>
+      </c>
+      <c r="D559" t="n">
+        <v>92.74630000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
